--- a/Jogos_do_Dia/2024-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,61 +682,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Z2" t="n">
         <v>0.8</v>
@@ -1099,19 +1099,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.93</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="I5" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L5" t="n">
         <v>2.3</v>
@@ -1135,16 +1135,16 @@
         <v>2.71</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>1.56</v>

--- a/Jogos_do_Dia/2024-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M2" t="n">
         <v>1.47</v>
@@ -718,16 +718,16 @@
         <v>2.7</v>
       </c>
       <c r="S2" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
         <v>1.61</v>
       </c>
       <c r="U2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>2.05</v>
@@ -754,43 +754,43 @@
         <v>2.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1099,19 +1099,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K5" t="n">
         <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.88</v>
       </c>
       <c r="L5" t="n">
         <v>2.3</v>
@@ -1135,16 +1135,16 @@
         <v>2.71</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>1.56</v>
@@ -1171,13 +1171,13 @@
         <v>3.29</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AH5" t="n">
         <v>1.28</v>
